--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T08:58:39+00:00</t>
+    <t>2024-02-01T14:02:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T08:02:03+00:00</t>
+    <t>2024-02-03T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T10:52:31+00:00</t>
+    <t>2024-02-03T12:20:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T12:20:16+00:00</t>
+    <t>2024-02-03T13:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T13:59:18+00:00</t>
+    <t>2024-02-03T20:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T20:15:25+00:00</t>
+    <t>2024-02-04T08:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-04T08:14:02+00:00</t>
+    <t>2024-02-04T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T12:39:32+00:00</t>
+    <t>2024-02-05T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4149,9 +4149,9 @@
     <t>NHS England Patient PDS NHS Number Allocation - this is a mock up for elaboration purposes see [NHS Number Allocation - submit request data fields](https://nhsd-confluence.digital.nhs.uk/display/DEMGRPH/NHS+Number+Allocation+-+submit+request+data+fields)</t>
   </si>
   <si>
-    <t>Name type +
-              Family name +
-              First given name +
+    <t>Name type +
+              Family name +
+              First given name +
               Business Effective From date</t>
   </si>
   <si>
@@ -4161,12 +4161,12 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Address type
-              Address line 1 or 2 AND Address line 4
+    <t>Address type
+              Address line 1 or 2 AND Address line 4
               Business Effective From date</t>
   </si>
   <si>
-    <t>Registering Authority
+    <t>Registering Authority
               Organisation Identifier</t>
   </si>
   <si>
@@ -8711,17 +8711,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="42.28125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="47.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="42.984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.06640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8730,21 +8730,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.91796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.91015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="15.703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.53125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="66.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="47.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:53:04+00:00</t>
+    <t>2024-02-06T11:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:30:33+00:00</t>
+    <t>2024-02-06T12:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:19:49+00:00</t>
+    <t>2024-02-06T14:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T14:33:31+00:00</t>
+    <t>2024-02-06T16:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T16:19:49+00:00</t>
+    <t>2024-02-07T07:23:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4149,9 +4149,9 @@
     <t>NHS England Patient PDS NHS Number Allocation - this is a mock up for elaboration purposes see [NHS Number Allocation - submit request data fields](https://nhsd-confluence.digital.nhs.uk/display/DEMGRPH/NHS+Number+Allocation+-+submit+request+data+fields)</t>
   </si>
   <si>
-    <t>Name type +
-              Family name +
-              First given name +
+    <t>Name type +
+              Family name +
+              First given name +
               Business Effective From date</t>
   </si>
   <si>
@@ -4161,12 +4161,12 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Address type
-              Address line 1 or 2 AND Address line 4
+    <t>Address type
+              Address line 1 or 2 AND Address line 4
               Business Effective From date</t>
   </si>
   <si>
-    <t>Registering Authority
+    <t>Registering Authority
               Organisation Identifier</t>
   </si>
   <si>
@@ -8711,17 +8711,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="47.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="42.984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="42.28125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8730,21 +8730,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.91015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.91796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="47.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T07:23:51+00:00</t>
+    <t>2024-02-07T10:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:40:08+00:00</t>
+    <t>2024-02-07T12:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T12:16:01+00:00</t>
+    <t>2024-02-07T13:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:26:07+00:00</t>
+    <t>2024-02-07T16:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T11:21:17+00:00</t>
+    <t>2024-02-08T16:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
